--- a/peatykid/data/naited.xlsx
+++ b/peatykid/data/naited.xlsx
@@ -8,19 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_opikud\met-stat-opik\peatykid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A70DC3-F23D-48DA-B44A-C678BDDCFD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E745E4D-A04F-4FBC-83C7-B93B03BCE22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="linreg" sheetId="5" r:id="rId2"/>
     <sheet name="prt_andmed" sheetId="3" r:id="rId3"/>
-    <sheet name="Leht1" sheetId="4" r:id="rId4"/>
+    <sheet name="MA" sheetId="4" r:id="rId4"/>
+    <sheet name="PH_MA" sheetId="6" r:id="rId5"/>
+    <sheet name="vaetis" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prt_andmed!$A$1:$F$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$154</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">PH_MA!$G$1:$G$3</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">PH_MA!$C$17</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="22">
   <si>
     <t>PL</t>
   </si>
@@ -80,18 +109,56 @@
   <si>
     <t>OnMänd</t>
   </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>SHV</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NPK</t>
+  </si>
+  <si>
+    <t>Kontroll</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,13 +177,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
@@ -417,7 +624,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="A1:C154"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D89051A-BEE6-40B6-AB68-BD4694B60290}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6335,12 +6542,1048 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6984326-7485-4DA9-92F6-65132B30C9B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>100</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>110</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>120</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>130</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>160</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>170</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>180</v>
+      </c>
+      <c r="B19" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>190</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>200</v>
+      </c>
+      <c r="B21" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>210</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>220</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>230</v>
+      </c>
+      <c r="B24" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>240</v>
+      </c>
+      <c r="B25" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>250</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>260</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>270</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>280</v>
+      </c>
+      <c r="B29" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>290</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>300</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>310</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>320</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>329</v>
+      </c>
+      <c r="B34" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C34" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>340</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="D35" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="E35" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4B385-D22F-4EBF-8970-F532DE254E6D}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>5.62</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>9.35</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>12.31</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>14.75</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>16.89</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>18.68</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>21.71</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>22.66</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>23.57</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>24.04</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>24.85</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>24.99</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>25.22</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF1DB-1BBF-4ED6-9D35-4FD9EF1DE175}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>